--- a/data/Servicos_Etapas.xlsx
+++ b/data/Servicos_Etapas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55199\Documents\Renan\projects\service-procedures-config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8503B5E-AB75-42A7-8E46-2840B6E6BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D5887-FCA2-41E3-A2B7-B7CB08AAA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="2925" windowWidth="15510" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores_Serviços" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <t>Porcentagem de Comissão</t>
   </si>
   <si>
+    <t>Tempo</t>
+  </si>
+  <si>
     <t>Retoque de Raiz</t>
   </si>
   <si>
@@ -59,16 +62,16 @@
   </si>
   <si>
     <t>Mechas</t>
-  </si>
-  <si>
-    <t>Etapa de Serviço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +91,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,114 +123,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,171 +446,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>130.30000000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>38.299999999999997</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="3">
         <v>0.29393706830391397</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>156</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>47.3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="3">
         <v>0.30320512820512813</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
         <v>230.3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>73.3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="3">
         <v>0.31828050369083799</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
         <v>230.3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>73.3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>0.31828050369083799</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
         <v>248.25000000000011</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>72.3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>0.29123867069486398</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
         <v>255.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>78.3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>0.30669800235017619</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>128</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>37.5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>0.29296874999999989</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
         <v>216</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>68.3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>0.31620370370370371</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
         <v>265.36</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>78.3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>0.29507084715104009</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
         <v>458.92</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>153.30000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>0.33404514948139108</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
